--- a/GDP PER CAPITA CURRENT $.xlsx
+++ b/GDP PER CAPITA CURRENT $.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjlo/Documents/2019-2/EST.A.POL2/INFO PARA EL PROYECTO DE ESTADÍSTICA/A NIVEL MUNDIAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A17438-DD55-6B49-965E-5EA888CFC1B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34FC60B-C0D5-4543-9D7B-EF757183F166}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="219">
   <si>
     <t>St. Lucia</t>
   </si>
@@ -49,12 +49,6 @@
     <t>Lao PDR</t>
   </si>
   <si>
-    <t>2012 [YR2012]</t>
-  </si>
-  <si>
-    <t>2005 [YR2005]</t>
-  </si>
-  <si>
     <t>Chad</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>2008 [YR2008]</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -205,9 +196,6 @@
     <t>Panama</t>
   </si>
   <si>
-    <t>2004 [YR2004]</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -226,9 +214,6 @@
     <t>Finland</t>
   </si>
   <si>
-    <t>2007 [YR2007]</t>
-  </si>
-  <si>
     <t>Paraguay</t>
   </si>
   <si>
@@ -373,9 +358,6 @@
     <t>Austria</t>
   </si>
   <si>
-    <t>2015 [YR2015]</t>
-  </si>
-  <si>
     <t>Iran, Islamic Rep.</t>
   </si>
   <si>
@@ -391,9 +373,6 @@
     <t>Guinea</t>
   </si>
   <si>
-    <t>2006 [YR2006]</t>
-  </si>
-  <si>
     <t>Liberia</t>
   </si>
   <si>
@@ -403,18 +382,12 @@
     <t>Micronesia, Fed. Sts.</t>
   </si>
   <si>
-    <t>2018 [YR2018]</t>
-  </si>
-  <si>
     <t>Vietnam</t>
   </si>
   <si>
     <t>Burkina Faso</t>
   </si>
   <si>
-    <t>2009 [YR2009]</t>
-  </si>
-  <si>
     <t>Gambia, The</t>
   </si>
   <si>
@@ -493,9 +466,6 @@
     <t>China</t>
   </si>
   <si>
-    <t>2011 [YR2011]</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
@@ -523,9 +493,6 @@
     <t>Hong Kong SAR, China</t>
   </si>
   <si>
-    <t>2014 [YR2014]</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -541,9 +508,6 @@
     <t>Romania</t>
   </si>
   <si>
-    <t>2017 [YR2017]</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
@@ -604,9 +568,6 @@
     <t>Lesotho</t>
   </si>
   <si>
-    <t>2010 [YR2010]</t>
-  </si>
-  <si>
     <t>Turkey</t>
   </si>
   <si>
@@ -637,9 +598,6 @@
     <t>Vanuatu</t>
   </si>
   <si>
-    <t>2013 [YR2013]</t>
-  </si>
-  <si>
     <t>Belgium</t>
   </si>
   <si>
@@ -662,9 +620,6 @@
   </si>
   <si>
     <t>Niger</t>
-  </si>
-  <si>
-    <t>2016 [YR2016]</t>
   </si>
   <si>
     <t>Hungary</t>
@@ -1063,65 +1018,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="K223" sqref="K223"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>205</v>
-      </c>
-      <c r="L1" t="s">
-        <v>167</v>
-      </c>
-      <c r="M1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" t="s">
-        <v>214</v>
-      </c>
-      <c r="O1" t="s">
-        <v>173</v>
-      </c>
-      <c r="P1" t="s">
-        <v>127</v>
+        <v>153</v>
+      </c>
+      <c r="B1">
+        <v>2004</v>
+      </c>
+      <c r="C1">
+        <v>2005</v>
+      </c>
+      <c r="D1">
+        <v>2006</v>
+      </c>
+      <c r="E1">
+        <v>2007</v>
+      </c>
+      <c r="F1">
+        <v>2008</v>
+      </c>
+      <c r="G1">
+        <v>2009</v>
+      </c>
+      <c r="H1">
+        <v>2010</v>
+      </c>
+      <c r="I1">
+        <v>2011</v>
+      </c>
+      <c r="J1">
+        <v>2012</v>
+      </c>
+      <c r="K1">
+        <v>2013</v>
+      </c>
+      <c r="L1">
+        <v>2014</v>
+      </c>
+      <c r="M1">
+        <v>2015</v>
+      </c>
+      <c r="N1">
+        <v>2016</v>
+      </c>
+      <c r="O1">
+        <v>2017</v>
+      </c>
+      <c r="P1">
+        <v>2018</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B2">
         <v>211.38196950719501</v>
@@ -1171,7 +1126,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B3">
         <v>2373.5798437199414</v>
@@ -1221,7 +1176,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B4">
         <v>2609.9526915243882</v>
@@ -1271,7 +1226,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>8578.944722776092</v>
@@ -1316,12 +1271,12 @@
         <v>11398.777418194893</v>
       </c>
       <c r="P5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B6">
         <v>38503.479614485652</v>
@@ -1371,7 +1326,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>1255.5640447149135</v>
@@ -1421,7 +1376,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B8">
         <v>11446.638470276688</v>
@@ -1471,7 +1426,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B9">
         <v>4277.7213506438857</v>
@@ -1521,7 +1476,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B10">
         <v>1191.9190195740218</v>
@@ -1571,7 +1526,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B11">
         <v>22569.974985180146</v>
@@ -1616,12 +1571,12 @@
         <v>25630.266492206945</v>
       </c>
       <c r="P11" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B12">
         <v>30430.676437444316</v>
@@ -1671,7 +1626,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B13">
         <v>36821.521468009327</v>
@@ -1721,7 +1676,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B14">
         <v>1045.0093791680526</v>
@@ -1771,7 +1726,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B15">
         <v>28395.9246646221</v>
@@ -1816,12 +1771,12 @@
         <v>31857.890145928999</v>
       </c>
       <c r="P15" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B16">
         <v>15846.552792234623</v>
@@ -1871,7 +1826,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B17">
         <v>475.29191978693535</v>
@@ -1921,7 +1876,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B18">
         <v>12766.270469769403</v>
@@ -1966,12 +1921,12 @@
         <v>16327.607229075613</v>
       </c>
       <c r="P18" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B19">
         <v>2378.6232860074101</v>
@@ -2021,7 +1976,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B20">
         <v>35589.689116840178</v>
@@ -2071,7 +2026,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B21">
         <v>3825.7873303822007</v>
@@ -2121,7 +2076,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B22">
         <v>583.40935143068236</v>
@@ -2171,7 +2126,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B23">
         <v>70359.319108879819</v>
@@ -2204,24 +2159,24 @@
         <v>85748.065414378245</v>
       </c>
       <c r="L23" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M23" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N23" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O23" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P23" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>1099.9773314279869</v>
@@ -2271,7 +2226,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B25">
         <v>967.40699195485774</v>
@@ -2321,7 +2276,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B26">
         <v>2814.999894874099</v>
@@ -2371,7 +2326,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>5073.5376499681988</v>
@@ -2421,7 +2376,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B28">
         <v>3637.4623892573331</v>
@@ -2474,54 +2429,54 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B30">
         <v>21902.088052583211</v>
@@ -2571,7 +2526,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>3363.7996442181293</v>
@@ -2621,7 +2576,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B32">
         <v>371.32308648301182</v>
@@ -2671,7 +2626,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B33">
         <v>128.33661283458213</v>
@@ -2721,7 +2676,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B34">
         <v>2024.2752476578842</v>
@@ -2771,7 +2726,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B35">
         <v>408.51382634736592</v>
@@ -2821,7 +2776,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>1009.9431204365826</v>
@@ -2871,7 +2826,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B37">
         <v>32034.307740842076</v>
@@ -2921,10 +2876,10 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B38" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C38">
         <v>47014.324494134431</v>
@@ -2933,45 +2888,45 @@
         <v>83322.784293087767</v>
       </c>
       <c r="E38" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F38" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G38" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H38" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I38" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J38" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K38" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L38" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M38" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N38" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O38">
         <v>56334.213992414785</v>
       </c>
       <c r="P38" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B39">
         <v>320.73746031192354</v>
@@ -3021,7 +2976,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B40">
         <v>453.52181721416514</v>
@@ -3071,7 +3026,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>56753.386197104177</v>
@@ -3086,42 +3041,42 @@
         <v>74462.646746792045</v>
       </c>
       <c r="F41" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G41" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H41" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I41" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J41" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K41" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L41" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M41" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N41" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O41" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P41" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B42">
         <v>6194.8531069841838</v>
@@ -3171,7 +3126,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B43">
         <v>1508.6680978826616</v>
@@ -3221,7 +3176,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B44">
         <v>2782.6230527548878</v>
@@ -3271,7 +3226,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="B45">
         <v>1059.1768842180757</v>
@@ -3321,7 +3276,7 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B46">
         <v>194.0399624266239</v>
@@ -3371,7 +3326,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B47">
         <v>1324.2191415417219</v>
@@ -3421,7 +3376,7 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B48">
         <v>4385.3907192800871</v>
@@ -3471,7 +3426,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>921.20125105830425</v>
@@ -3521,7 +3476,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B50">
         <v>9646.2895877715473</v>
@@ -3571,7 +3526,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B51">
         <v>3395.7120502312591</v>
@@ -3616,33 +3571,33 @@
         <v>8541.2106734664048</v>
       </c>
       <c r="P51" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B52" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E52" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F52" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G52" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H52" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I52">
         <v>20146.386412200056</v>
@@ -3666,12 +3621,12 @@
         <v>19457.531523220499</v>
       </c>
       <c r="P52" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B53">
         <v>23792.617929063999</v>
@@ -3721,7 +3676,7 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B54">
         <v>11685.887240723441</v>
@@ -3771,7 +3726,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B55">
         <v>46511.598332430505</v>
@@ -3821,7 +3776,7 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B56">
         <v>863.23161234145687</v>
@@ -3871,7 +3826,7 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B57">
         <v>5217.2304156049995</v>
@@ -3921,7 +3876,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B58">
         <v>2528.5771991386546</v>
@@ -3971,7 +3926,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B59">
         <v>2691.278080619647</v>
@@ -4021,7 +3976,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B60">
         <v>1063.003663029567</v>
@@ -4071,7 +4026,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B61">
         <v>2278.4318429057289</v>
@@ -4121,7 +4076,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B62">
         <v>6152.1312376017331</v>
@@ -4171,7 +4126,7 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B63">
         <v>407.7699765165749</v>
@@ -4198,30 +4153,30 @@
         <v>811.37602860210791</v>
       </c>
       <c r="J63" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K63" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L63" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M63" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N63" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O63" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P63" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B64">
         <v>8850.4651148479134</v>
@@ -4271,7 +4226,7 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B65">
         <v>136.46625555278254</v>
@@ -4321,7 +4276,7 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B66">
         <v>35467.175469944283</v>
@@ -4363,15 +4318,15 @@
         <v>55822.914720343775</v>
       </c>
       <c r="O66" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B67">
         <v>3334.9316666979225</v>
@@ -4421,7 +4376,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B68">
         <v>37636.111734175342</v>
@@ -4471,7 +4426,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B69">
         <v>33741.26514691746</v>
@@ -4521,57 +4476,57 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C70" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D70" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E70" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F70" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G70" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H70" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I70" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J70" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K70" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L70" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M70" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N70" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O70" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B71">
         <v>5729.2969577969834</v>
@@ -4621,7 +4576,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B72">
         <v>386.75276251529914</v>
@@ -4671,7 +4626,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B73">
         <v>1305.0474855720774</v>
@@ -4771,7 +4726,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B75">
         <v>417.50816486176473</v>
@@ -4821,57 +4776,57 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B77">
         <v>21955.104091159461</v>
@@ -4921,7 +4876,7 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B78">
         <v>32023.452207623697</v>
@@ -4963,15 +4918,15 @@
         <v>48295.562439631249</v>
       </c>
       <c r="O78" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B79">
         <v>5741.5986333348592</v>
@@ -5021,7 +4976,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B80">
         <v>24395.797623038437</v>
@@ -5066,12 +5021,12 @@
         <v>35664.501677004642</v>
       </c>
       <c r="P80" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B81">
         <v>1872.7370829884044</v>
@@ -5121,7 +5076,7 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B82">
         <v>410.76121611684437</v>
@@ -5171,7 +5126,7 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B83">
         <v>404.34913662623165</v>
@@ -5221,7 +5176,7 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B84">
         <v>1056.4238856109368</v>
@@ -5271,7 +5226,7 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>391.03461565540789</v>
@@ -5321,7 +5276,7 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B86">
         <v>1204.4798898854456</v>
@@ -5371,7 +5326,7 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B87">
         <v>24928.100372255118</v>
@@ -5421,7 +5376,7 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B88">
         <v>10296.339789484426</v>
@@ -5471,7 +5426,7 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B89">
         <v>47367.281860120485</v>
@@ -5521,7 +5476,7 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B90">
         <v>627.77426230676917</v>
@@ -5571,7 +5526,7 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B91">
         <v>1150.2613149956467</v>
@@ -5621,7 +5576,7 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B92">
         <v>2756.1987421936565</v>
@@ -5666,12 +5621,12 @@
         <v>5627.7492684545578</v>
       </c>
       <c r="P92" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B93">
         <v>1391.9634894029145</v>
@@ -5721,7 +5676,7 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B94">
         <v>47631.010657122279</v>
@@ -5771,7 +5726,7 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B95">
         <v>35490.79940390047</v>
@@ -5813,15 +5768,15 @@
         <v>79155.541672095962</v>
       </c>
       <c r="O95" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P95" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B96">
         <v>19876.9161435481</v>
@@ -5871,7 +5826,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B97">
         <v>31174.561087858037</v>
@@ -5921,7 +5876,7 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B98">
         <v>3725.1090928117528</v>
@@ -5971,7 +5926,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B99">
         <v>37688.722335940642</v>
@@ -6021,7 +5976,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B100">
         <v>2044.9626233237827</v>
@@ -6071,7 +6026,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B101">
         <v>2874.2882912764935</v>
@@ -6121,7 +6076,7 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B102">
         <v>451.66871591453878</v>
@@ -6171,7 +6126,7 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B103">
         <v>1131.1400045357514</v>
@@ -6221,57 +6176,57 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B104" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C104" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D104" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E104" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F104" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G104" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H104" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I104" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J104" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K104" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L104" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M104" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N104" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O104" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P104" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B105">
         <v>15907.665834035204</v>
@@ -6371,7 +6326,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B107">
         <v>27012.190266995607</v>
@@ -6421,7 +6376,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B108">
         <v>433.23497659086701</v>
@@ -6521,7 +6476,7 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B110">
         <v>6351.0801254715579</v>
@@ -6571,7 +6526,7 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B111">
         <v>4627.6579875570214</v>
@@ -6621,7 +6576,7 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B112">
         <v>753.38078682336743</v>
@@ -6671,7 +6626,7 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B113">
         <v>286.06499894280324</v>
@@ -6721,7 +6676,7 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B114">
         <v>5800.5979685149805</v>
@@ -6771,7 +6726,7 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B115">
         <v>100265.95512501535</v>
@@ -6813,15 +6768,15 @@
         <v>165028.24502918668</v>
       </c>
       <c r="O115" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P115" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B116">
         <v>6706.966998439284</v>
@@ -6871,7 +6826,7 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B117">
         <v>75716.351078988358</v>
@@ -6971,7 +6926,7 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B119">
         <v>2762.5603583758375</v>
@@ -7021,7 +6976,7 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B120">
         <v>245.12358758326198</v>
@@ -7071,7 +7026,7 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B121">
         <v>282.56708459948555</v>
@@ -7121,7 +7076,7 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B122">
         <v>4952.2234216925099</v>
@@ -7171,7 +7126,7 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B123">
         <v>3941.4311358488749</v>
@@ -7221,7 +7176,7 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B124">
         <v>440.16844180079096</v>
@@ -7271,7 +7226,7 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B125">
         <v>15109.054968395925</v>
@@ -7321,7 +7276,7 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B126">
         <v>2410.8708422057416</v>
@@ -7371,7 +7326,7 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B127">
         <v>623.78042416216078</v>
@@ -7421,7 +7376,7 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B128">
         <v>5388.0657843593817</v>
@@ -7471,7 +7426,7 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B129">
         <v>7484.4865419302942</v>
@@ -7521,7 +7476,7 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B130">
         <v>2251.7889800703401</v>
@@ -7571,7 +7526,7 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B131">
         <v>720.94093207213496</v>
@@ -7621,7 +7576,7 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B132">
         <v>122691.63741758058</v>
@@ -7666,12 +7621,12 @@
         <v>166726.0519256815</v>
       </c>
       <c r="P132" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B133">
         <v>797.97868526844445</v>
@@ -7721,7 +7676,7 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B134">
         <v>3380.1651213585906</v>
@@ -7771,7 +7726,7 @@
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B135">
         <v>1952.9018302260399</v>
@@ -7821,7 +7776,7 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B136">
         <v>343.12503894408161</v>
@@ -7871,7 +7826,7 @@
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B137">
         <v>217.59428261206079</v>
@@ -7921,7 +7876,7 @@
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B138">
         <v>3396.9119322870897</v>
@@ -7971,16 +7926,16 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D139" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E139">
         <v>2076.7689064060501</v>
@@ -8021,7 +7976,7 @@
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B140">
         <v>286.15759378841074</v>
@@ -8121,57 +8076,57 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B142" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C142" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D142" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E142" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F142" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G142" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H142" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I142" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J142" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K142" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L142" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M142" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N142" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O142" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P142" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B143">
         <v>25420.234882944005</v>
@@ -8221,7 +8176,7 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B144">
         <v>1080.2681122222959</v>
@@ -8271,7 +8226,7 @@
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B145">
         <v>232.58557646321995</v>
@@ -8321,7 +8276,7 @@
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B146">
         <v>1007.8743275160411</v>
@@ -8371,7 +8326,7 @@
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B147">
         <v>21136.84798937917</v>
@@ -8416,12 +8371,12 @@
         <v>28163.784873236447</v>
       </c>
       <c r="P147" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B148">
         <v>57570.269160194257</v>
@@ -8471,7 +8426,7 @@
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B149">
         <v>10126.116104170616</v>
@@ -8521,7 +8476,7 @@
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B150">
         <v>625.39785972121331</v>
@@ -8571,7 +8526,7 @@
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B151">
         <v>8263.1096793677953</v>
@@ -8621,7 +8576,7 @@
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B152">
         <v>4592.1526135422391</v>
@@ -8671,7 +8626,7 @@
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B153">
         <v>618.0368976903859</v>
@@ -8721,7 +8676,7 @@
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B154">
         <v>1679.4971714390881</v>
@@ -8771,7 +8726,7 @@
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B155">
         <v>2417.0355006156619</v>
@@ -8821,7 +8776,7 @@
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B156">
         <v>1078.6289443771873</v>
@@ -8871,7 +8826,7 @@
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B157">
         <v>6681.1788178119805</v>
@@ -8921,7 +8876,7 @@
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B158">
         <v>18045.588099483284</v>
@@ -8971,7 +8926,7 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B159">
         <v>20988.992332653404</v>
@@ -9021,7 +8976,7 @@
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B160">
         <v>42124.829005548578</v>
@@ -9071,7 +9026,7 @@
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B161">
         <v>3494.9445171830384</v>
@@ -9171,7 +9126,7 @@
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B163">
         <v>250.51750487396762</v>
@@ -9221,7 +9176,7 @@
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B164">
         <v>2353.5482185981145</v>
@@ -9271,7 +9226,7 @@
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B165">
         <v>64869.662603960933</v>
@@ -9316,12 +9271,12 @@
         <v>48494.551411242654</v>
       </c>
       <c r="P165" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B166">
         <v>745.31365772534286</v>
@@ -9371,7 +9326,7 @@
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B167">
         <v>11185.133368164286</v>
@@ -9421,7 +9376,7 @@
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B168">
         <v>940.55169182969325</v>
@@ -9471,7 +9426,7 @@
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B169">
         <v>3331.2289951167054</v>
@@ -9521,7 +9476,7 @@
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B170">
         <v>10176.658712006396</v>
@@ -9571,7 +9526,7 @@
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B171">
         <v>266.56956753911214</v>
@@ -9621,7 +9576,7 @@
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B172">
         <v>27608.537371274353</v>
@@ -9674,54 +9629,54 @@
         <v>5</v>
       </c>
       <c r="B173" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C173" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D173" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E173" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F173" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G173" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H173" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I173" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J173" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K173" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L173" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M173" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N173" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O173" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P173" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B174">
         <v>10654.793707293686</v>
@@ -9771,7 +9726,7 @@
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B175">
         <v>17260.901513817302</v>
@@ -9821,7 +9776,7 @@
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B176">
         <v>818.05886725519213</v>
@@ -9871,34 +9826,34 @@
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B177" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C177" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D177" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E177" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F177" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G177" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H177" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I177" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J177" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K177">
         <v>257.82875150096498</v>
@@ -9921,7 +9876,7 @@
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B178">
         <v>4833.7023451958521</v>
@@ -9971,19 +9926,19 @@
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B179" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C179" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D179" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E179" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F179">
         <v>1779.8151364991334</v>
@@ -10013,15 +9968,15 @@
         <v>283.4878017288263</v>
       </c>
       <c r="O179" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P179" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B180">
         <v>24918.64584199942</v>
@@ -10071,7 +10026,7 @@
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B181">
         <v>1065.7844368019662</v>
@@ -10121,7 +10076,7 @@
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B182">
         <v>11424.973216027529</v>
@@ -10221,57 +10176,57 @@
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P184" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B185">
         <v>4810.2985025721673</v>
@@ -10321,7 +10276,7 @@
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B186">
         <v>573.30692611793904</v>
@@ -10371,7 +10326,7 @@
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B187">
         <v>3006.189322222066</v>
@@ -10421,7 +10376,7 @@
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B188">
         <v>2699.1333716957238</v>
@@ -10471,7 +10426,7 @@
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B189">
         <v>42491.968860776105</v>
@@ -10521,7 +10476,7 @@
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B190">
         <v>53340.147655777975</v>
@@ -10571,7 +10526,7 @@
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B191">
         <v>1407.1784243489772</v>
@@ -10586,42 +10541,42 @@
         <v>2032.6234893270127</v>
       </c>
       <c r="F191" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G191" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H191" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I191" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J191" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K191" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L191" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M191" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N191" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O191" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P191" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B192">
         <v>311.62732480273581</v>
@@ -10671,7 +10626,7 @@
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B193">
         <v>459.25928251386102</v>
@@ -10721,7 +10676,7 @@
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B194">
         <v>2660.1227906127733</v>
@@ -10771,7 +10726,7 @@
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B195">
         <v>1109.5601356681136</v>
@@ -10821,7 +10776,7 @@
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B196">
         <v>412.5893919623075</v>
@@ -10871,7 +10826,7 @@
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B197">
         <v>2288.593015147007</v>
@@ -10921,7 +10876,7 @@
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B198">
         <v>10293.805414704957</v>
@@ -10971,7 +10926,7 @@
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B199">
         <v>3111.3827029012814</v>
@@ -11021,7 +10976,7 @@
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B200">
         <v>6040.60769792052</v>
@@ -11071,7 +11026,7 @@
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B201">
         <v>1453.9162381576402</v>
@@ -11121,7 +11076,7 @@
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="B202">
         <v>18187.221348314608</v>
@@ -11171,7 +11126,7 @@
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B203">
         <v>2182.0783876369796</v>
@@ -11221,7 +11176,7 @@
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B204">
         <v>296.04693610379712</v>
@@ -11271,7 +11226,7 @@
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B205">
         <v>1366.0172249551699</v>
@@ -11321,7 +11276,7 @@
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B206">
         <v>36333.249844526596</v>
@@ -11371,7 +11326,7 @@
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B207">
         <v>40068.311450176428</v>
@@ -11421,7 +11376,7 @@
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B208">
         <v>41712.801067554457</v>
@@ -11471,7 +11426,7 @@
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B209">
         <v>4120.5566110124164</v>
@@ -11521,7 +11476,7 @@
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B210">
         <v>465.11988694402487</v>
@@ -11571,7 +11526,7 @@
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B211">
         <v>1788.0871669579135</v>
@@ -11621,7 +11576,7 @@
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B212">
         <v>4325.6967558755796</v>
@@ -11657,21 +11612,21 @@
         <v>16054.490513096169</v>
       </c>
       <c r="M212" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="N212" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O212" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P212" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B213">
         <v>546.90960584225081</v>
@@ -11721,7 +11676,7 @@
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B214">
         <v>35024.477490849749</v>
@@ -11766,12 +11721,12 @@
         <v>35938.024387515383</v>
       </c>
       <c r="P214" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B215">
         <v>1337.5657243067317</v>
@@ -11821,7 +11776,7 @@
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B216">
         <v>709.96530613862478</v>
@@ -11871,7 +11826,7 @@
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B217">
         <v>538.59150640966232</v>
@@ -11921,7 +11876,7 @@
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B218">
         <v>482.99841130284483</v>
